--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Basic enemies" sheetId="1" r:id="rId1"/>
-    <sheet name="Bosses" sheetId="2" r:id="rId2"/>
+    <sheet name="Stage and Bosses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="241">
   <si>
     <t>Name</t>
   </si>
@@ -324,12 +324,6 @@
     <t>HyperMaintainer</t>
   </si>
   <si>
-    <t>Enhancer</t>
-  </si>
-  <si>
-    <t>HyperEnhancer</t>
-  </si>
-  <si>
     <t>Protector</t>
   </si>
   <si>
@@ -688,6 +682,72 @@
   </si>
   <si>
     <t>A odd yet extremely dangerous bomb that severely reduce the cooldowns and bullet and ammo reload speeds. (they stack)</t>
+  </si>
+  <si>
+    <t>Zipper</t>
+  </si>
+  <si>
+    <t>Dodge bullets, fast</t>
+  </si>
+  <si>
+    <t>MesoZipper</t>
+  </si>
+  <si>
+    <t>MacroZipper</t>
+  </si>
+  <si>
+    <t>HyperZipper</t>
+  </si>
+  <si>
+    <t>A sneaky little bomb capable of dodging bullets.</t>
+  </si>
+  <si>
+    <t>Fast and sneaky bomb adept at dodging bullets.</t>
+  </si>
+  <si>
+    <t>A bomb very difficult to hit due to its maneuverability</t>
+  </si>
+  <si>
+    <t>A bomb so agile that it is common knowledge to prefer to repair damages caused by it rather than destoying them outright.</t>
+  </si>
+  <si>
+    <t>3 others inside</t>
+  </si>
+  <si>
+    <t>4 others inside</t>
+  </si>
+  <si>
+    <t>4 others better</t>
+  </si>
+  <si>
+    <t>4 others best</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Havoc</t>
+  </si>
+  <si>
+    <t>HyperHavoc</t>
+  </si>
+  <si>
+    <t>Spawn other bombs, heals upon new release</t>
+  </si>
+  <si>
+    <t>Spawn other bombs, helas and shield upon new release</t>
+  </si>
+  <si>
+    <t>Spawn other bombs, heal dmg and shield upon new release</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Bosses</t>
+  </si>
+  <si>
+    <t>Taunt, DOT</t>
   </si>
 </sst>
 </file>
@@ -710,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +813,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -781,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,6 +905,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1162,8 +1248,11 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="L1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -1210,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1280,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1315,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1350,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1385,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1423,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1458,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1493,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1528,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1563,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1598,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1636,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1671,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1706,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1741,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1776,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1811,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1849,7 +1938,7 @@
         <v>68</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1884,7 +1973,7 @@
         <v>68</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1919,7 +2008,7 @@
         <v>68</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -1954,7 +2043,7 @@
         <v>68</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
@@ -1962,10 +2051,10 @@
         <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I24" s="3">
         <v>10</v>
@@ -1974,12 +2063,12 @@
         <v>79</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I25" s="3">
         <v>30</v>
@@ -1988,12 +2077,12 @@
         <v>79</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I26" s="3">
         <v>50</v>
@@ -2002,12 +2091,12 @@
         <v>79</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I27" s="3">
         <v>70</v>
@@ -2016,7 +2105,7 @@
         <v>79</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -2033,12 +2122,12 @@
         <v>81</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B29" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I29" s="5">
         <v>130</v>
@@ -2047,12 +2136,12 @@
         <v>81</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B30" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I30" s="5">
         <v>160</v>
@@ -2061,12 +2150,12 @@
         <v>81</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B31" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I31" s="5">
         <v>200</v>
@@ -2075,453 +2164,468 @@
         <v>81</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I32" s="3">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I33" s="3">
-        <v>400</v>
+        <v>40</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I34" s="3">
-        <v>500</v>
+        <v>50</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I35" s="3">
-        <v>600</v>
+        <v>60</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I36" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B37" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I37" s="5">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B38" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I38" s="5">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B39" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I39" s="5">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I40" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I41" s="3">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="I42" s="3">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I43" s="3">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I44" s="5">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B45" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I45" s="5">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B46" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I46" s="5">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B47" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I47" s="5">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="I49" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B50" s="3" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="I50" s="3">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B51" s="3" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="I51" s="3">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="I52" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B53" s="5" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="I53" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B54" s="5" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="I54" s="5">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B55" s="5" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="I55" s="5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I56" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="5">
         <v>50</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="M56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="5">
         <v>100</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="M57" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I58" s="5">
         <v>50</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M58" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="N58" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I59" s="5">
         <v>100</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N59" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="N59" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="5">
         <v>50</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="M60" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N60" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="N60" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="I61" s="5">
+        <v>100</v>
+      </c>
+      <c r="M61" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N61" s="4" t="s">
-        <v>212</v>
+      <c r="N61" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="B62" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I62" s="3">
         <v>50</v>
@@ -2530,12 +2634,12 @@
         <v>110</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I63" s="3">
         <v>100</v>
@@ -2544,12 +2648,12 @@
         <v>110</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B64" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I64" s="3">
         <v>50</v>
@@ -2558,12 +2662,12 @@
         <v>111</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I65" s="3">
         <v>100</v>
@@ -2572,67 +2676,168 @@
         <v>111</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I66" s="5">
-        <v>50</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I67" s="5">
-        <v>100</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N67" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I68" s="5">
-        <v>50</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I69" s="5">
-        <v>100</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>220</v>
-      </c>
+    <row r="66" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L66" s="27"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+    </row>
+    <row r="67" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="23">
+        <v>300</v>
+      </c>
+      <c r="K67" s="23">
+        <v>1</v>
+      </c>
+      <c r="M67" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N67" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" s="23">
+        <v>400</v>
+      </c>
+      <c r="K68" s="23">
+        <v>1</v>
+      </c>
+      <c r="M68" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="N68" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I69" s="23">
+        <v>500</v>
+      </c>
+      <c r="K69" s="23">
+        <v>1</v>
+      </c>
+      <c r="M69" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="N69" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="23">
+        <v>600</v>
+      </c>
+      <c r="K70" s="23">
+        <v>2</v>
+      </c>
+      <c r="M70" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="N70" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I71" s="23">
+        <v>200</v>
+      </c>
+      <c r="K71" s="23">
+        <v>1</v>
+      </c>
+      <c r="M71" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72" s="23">
+        <v>400</v>
+      </c>
+      <c r="K72" s="23">
+        <v>1</v>
+      </c>
+      <c r="M72" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="23">
+        <v>600</v>
+      </c>
+      <c r="K73" s="23">
+        <v>1</v>
+      </c>
+      <c r="M73" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I74" s="23">
+        <v>800</v>
+      </c>
+      <c r="K74" s="23">
+        <v>2</v>
+      </c>
+      <c r="M74" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="N74" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="L75" s="24"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+    </row>
+    <row r="76" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="L76" s="24"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2642,362 +2847,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="8.9375" style="20"/>
-    <col min="2" max="11" width="12.8203125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="12.8203125" style="21" customWidth="1"/>
-    <col min="13" max="15" width="12.8203125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="8.9375" style="21"/>
+    <col min="2" max="3" width="12.8203125" style="20" customWidth="1"/>
+    <col min="4" max="6" width="12.8203125" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="8.9375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -486,9 +486,6 @@
     <t>A different approach. Slow but vastly more durable and damaging.</t>
   </si>
   <si>
-    <t>Extreme durability and destructability.</t>
-  </si>
-  <si>
     <t>Pinnacle of conventional alien bombs.</t>
   </si>
   <si>
@@ -504,18 +501,12 @@
     <t>Heavily armored bomb.</t>
   </si>
   <si>
-    <t>Bomb of extreme armor and durability</t>
-  </si>
-  <si>
     <t>Bomb with one of the heaviest armor in the alien bomb arsenal.</t>
   </si>
   <si>
     <t>A bomb with a protective shield. Can endure heavy damage once per flight.</t>
   </si>
   <si>
-    <t>Micro bomb with a few shielded protection.</t>
-  </si>
-  <si>
     <t>Dangerous bomb due to the speed and durability of its shields.</t>
   </si>
   <si>
@@ -546,9 +537,6 @@
     <t>A bomb holding slightly accentuated powers of the normal Engima bomb.</t>
   </si>
   <si>
-    <t>Bizzare yet highly dangerous bomb due to its magical damage upon destruction. Must be faced with utmost care.</t>
-  </si>
-  <si>
     <t>A bomb with no brain. Its movement can never be predicted. A bomb very difficult to bring down efficiently.</t>
   </si>
   <si>
@@ -561,12 +549,6 @@
     <t>One of the rarer bombs only appearing on large battles. The carrier constantly teleport other bombs into the battle.</t>
   </si>
   <si>
-    <t>A more sophisticated version of the carrier even more seldom seen. A better teleported enables higher level bombs into battle.</t>
-  </si>
-  <si>
-    <t>A rarely seen bomb of even higher capabilites than that of the Colossus bomb. Facing it is never a good sign.</t>
-  </si>
-  <si>
     <t>A bomb of mystery. Some sources say this bomb is capable of teleporting entire armies. People hope never to see this bomb.</t>
   </si>
   <si>
@@ -633,21 +615,12 @@
     <t>Better enhancement on the special armor of this bomb allow even better relfection of damage.</t>
   </si>
   <si>
-    <t>Perfect armor designed to reflect all the damage it takes.</t>
-  </si>
-  <si>
-    <t>A dangerous bomb adept at directing bombs and subsequently increase the enemy bomb speeds. (they stack)</t>
-  </si>
-  <si>
     <t>A very dangerous bomb with better leadership drastically boosting enemy bomb speeds. (they stack)</t>
   </si>
   <si>
     <t>A dangerous bomb capable of providing other bombs in its vicinity with additional armor. (they stack)</t>
   </si>
   <si>
-    <t>A very dangerous bomb with better capabilities in providing allys with armor. (they stack)</t>
-  </si>
-  <si>
     <t>A dangerous bomb capable to fixing damaged bombs in its vicinity. (they stack)</t>
   </si>
   <si>
@@ -702,9 +675,6 @@
     <t>A bomb very difficult to hit due to its maneuverability</t>
   </si>
   <si>
-    <t>A bomb so agile that it is common knowledge to prefer to repair damages caused by it rather than destoying them outright.</t>
-  </si>
-  <si>
     <t>3 others inside</t>
   </si>
   <si>
@@ -756,12 +726,6 @@
     <t>0(4)</t>
   </si>
   <si>
-    <t>Borrowing the power of quantum mechanics, this bomb has found the power of teleportation.</t>
-  </si>
-  <si>
-    <t>Perfecting the quantum technology this bomb can teleport more frequently to its counterparts.</t>
-  </si>
-  <si>
     <t>5(10)</t>
   </si>
   <si>
@@ -922,6 +886,42 @@
   </si>
   <si>
     <t>50(200)</t>
+  </si>
+  <si>
+    <t>Micro bomb with a few shielded protections.</t>
+  </si>
+  <si>
+    <t>Bomb with extreme armor and durability.</t>
+  </si>
+  <si>
+    <t>Bizzare yet highly dangerous bomb due to its reflecting damage upon destruction. Must be faced with utmost care.</t>
+  </si>
+  <si>
+    <t>Borrowing the power of quantum mechanics, this bomb has the power of teleportation.</t>
+  </si>
+  <si>
+    <t>Perfecting the quantum technology this bomb can teleport more frequently than its counterparts.</t>
+  </si>
+  <si>
+    <t>Bomb with perfect armor designed to reflect much of the damage it takes.</t>
+  </si>
+  <si>
+    <t>A dangerous bomb adept at directing bombs. Increase the enemy bomb speeds. (they stack)</t>
+  </si>
+  <si>
+    <t>A very dangerous bomb with high capability in providing allys with armor. (they stack)</t>
+  </si>
+  <si>
+    <t>A more sophisticated version of the carrier more seldom seen. A better teleporter enables higher level bombs into battle.</t>
+  </si>
+  <si>
+    <t>A rarely seen bomb of even higher capabilites than that of the Colossus bomb. Facing it is never easy.</t>
+  </si>
+  <si>
+    <t>Bomb with extreme durability and destructability.</t>
+  </si>
+  <si>
+    <t>A bomb so agile that it is common knowledge to prefer to repair damages caused by it rather than destoying them.</t>
   </si>
 </sst>
 </file>
@@ -1388,9 +1388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1442,16 +1442,16 @@
         <v>13</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>8</v>
@@ -1498,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1638,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -1746,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -1781,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -1816,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -1851,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -1886,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1924,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1959,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1994,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2029,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2064,7 +2064,7 @@
         <v>9</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2099,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2137,7 +2137,7 @@
         <v>68</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2172,7 +2172,7 @@
         <v>68</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2207,7 +2207,7 @@
         <v>68</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2242,7 +2242,7 @@
         <v>68</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2277,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2332,7 +2332,7 @@
         <v>0.7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G26" s="2">
         <v>90</v>
@@ -2347,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2382,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G28" s="4">
         <v>10</v>
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G29" s="4">
         <v>15</v>
@@ -2458,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>81</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G31" s="4">
         <v>25</v>
@@ -2534,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>81</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2554,7 +2554,7 @@
         <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E32" s="2">
         <v>0.3</v>
@@ -2575,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>86</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2592,7 +2592,7 @@
         <v>130</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E33" s="2">
         <v>0.25</v>
@@ -2613,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>86</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2630,7 +2630,7 @@
         <v>131</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E34" s="2">
         <v>0.2</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>86</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2668,13 +2668,13 @@
         <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E35" s="2">
         <v>0.15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G35" s="2">
         <v>160</v>
@@ -2689,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>86</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2730,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="O37" s="5" t="s">
         <v>87</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>87</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G39" s="4">
         <v>260</v>
@@ -2844,16 +2844,16 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>87</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G40" s="2">
         <v>100</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G41" s="2">
         <v>150</v>
@@ -2923,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2937,7 +2937,7 @@
         <v>141</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D42" s="2">
         <v>95</v>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G42" s="2">
         <v>200</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G43" s="2">
         <v>250</v>
@@ -2996,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3019,7 +3019,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G44" s="4">
         <v>700</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M44" s="28">
         <v>0.01</v>
@@ -3044,7 +3044,7 @@
         <v>90</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3058,7 +3058,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G45" s="4">
         <v>800</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M45" s="28">
         <v>0.02</v>
@@ -3083,7 +3083,7 @@
         <v>90</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3097,7 +3097,7 @@
         <v>0.1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G46" s="4">
         <v>900</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M46" s="28">
         <v>0.03</v>
@@ -3122,7 +3122,7 @@
         <v>90</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3136,7 +3136,7 @@
         <v>0.1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G47" s="4">
         <v>1000</v>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M47" s="28">
         <v>0.05</v>
@@ -3161,15 +3161,15 @@
         <v>90</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
@@ -3193,15 +3193,15 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -3225,15 +3225,15 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B50" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D50" s="2">
         <v>8</v>
@@ -3257,15 +3257,15 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D51" s="2">
         <v>10</v>
@@ -3274,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G51" s="2">
         <v>45</v>
@@ -3289,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3324,19 +3324,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>94</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3365,19 +3365,19 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M53" s="28">
         <v>0.3</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>94</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3406,19 +3406,19 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>106</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3432,7 +3432,7 @@
         <v>0.1</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G55" s="4">
         <v>1200</v>
@@ -3447,19 +3447,19 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>106</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3473,7 +3473,7 @@
         <v>0.2</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G56" s="4">
         <v>1000</v>
@@ -3488,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>107</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3514,7 +3514,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G57" s="4">
         <v>1500</v>
@@ -3529,24 +3529,24 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>107</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B58" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D58" s="4">
         <v>150</v>
@@ -3570,24 +3570,24 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>108</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B59" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -3596,7 +3596,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G59" s="4">
         <v>1500</v>
@@ -3611,19 +3611,19 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>108</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3637,7 +3637,7 @@
         <v>0.2</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G60" s="4">
         <v>500</v>
@@ -3652,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>109</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3675,7 +3675,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G61" s="4">
         <v>700</v>
@@ -3690,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>109</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -3716,7 +3716,7 @@
         <v>0.2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G62" s="2">
         <v>1000</v>
@@ -3731,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>110</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -3754,7 +3754,7 @@
         <v>0.1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G63" s="2">
         <v>1500</v>
@@ -3769,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>110</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -3792,7 +3792,7 @@
         <v>0.2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G64" s="2">
         <v>1000</v>
@@ -3807,16 +3807,16 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>111</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -3830,7 +3830,7 @@
         <v>0.1</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G65" s="2">
         <v>1500</v>
@@ -3845,21 +3845,21 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>111</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A66" s="24" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
@@ -3881,7 +3881,7 @@
         <v>0.05</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G67" s="22">
         <v>1000</v>
@@ -3899,13 +3899,13 @@
         <v>1</v>
       </c>
       <c r="N67" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O67" s="23" t="s">
         <v>84</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -3919,7 +3919,7 @@
         <v>0.05</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G68" s="22">
         <v>1500</v>
@@ -3937,13 +3937,13 @@
         <v>1</v>
       </c>
       <c r="N68" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O68" s="23" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -3957,7 +3957,7 @@
         <v>0.02</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G69" s="22">
         <v>2000</v>
@@ -3975,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="N69" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O69" s="23" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -3995,7 +3995,7 @@
         <v>0.02</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G70" s="22">
         <v>2500</v>
@@ -4013,13 +4013,13 @@
         <v>2</v>
       </c>
       <c r="N70" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O70" s="23" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -4033,7 +4033,7 @@
         <v>50</v>
       </c>
       <c r="E71" s="22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>67</v>
@@ -4054,16 +4054,16 @@
         <v>1</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O71" s="23" t="s">
         <v>13</v>
       </c>
       <c r="P71" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -4074,10 +4074,10 @@
         <v>70</v>
       </c>
       <c r="E72" s="22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G72" s="22">
         <v>3000</v>
@@ -4095,16 +4095,16 @@
         <v>1</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O72" s="23" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="P72" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -4115,10 +4115,10 @@
         <v>90</v>
       </c>
       <c r="E73" s="22">
-        <v>0.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G73" s="22">
         <v>4000</v>
@@ -4136,16 +4136,16 @@
         <v>1</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O73" s="23" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -4156,7 +4156,7 @@
         <v>110</v>
       </c>
       <c r="E74" s="22">
-        <v>0.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>62</v>
@@ -4177,16 +4177,16 @@
         <v>2</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O74" s="23" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P74" s="23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1388,9 +1388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3037,7 +3037,7 @@
         <v>259</v>
       </c>
       <c r="M44" s="28">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N44" s="28"/>
       <c r="O44" s="5" t="s">
@@ -3076,7 +3076,7 @@
         <v>259</v>
       </c>
       <c r="M45" s="28">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N45" s="28"/>
       <c r="O45" s="5" t="s">
@@ -3115,7 +3115,7 @@
         <v>259</v>
       </c>
       <c r="M46" s="28">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N46" s="28"/>
       <c r="O46" s="5" t="s">
@@ -3175,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>25</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>26</v>
@@ -3239,7 +3239,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>27</v>
@@ -3271,7 +3271,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>232</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1389,8 +1389,8 @@
   <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J44" s="4">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="4">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="298">
   <si>
     <t>Name</t>
   </si>
@@ -816,9 +816,6 @@
     <t>heal 10/s</t>
   </si>
   <si>
-    <t>heal 3/s</t>
-  </si>
-  <si>
     <t>self armor included</t>
   </si>
   <si>
@@ -834,12 +831,6 @@
     <t>buff 20%</t>
   </si>
   <si>
-    <t>buff 10%</t>
-  </si>
-  <si>
-    <t>buff 5%</t>
-  </si>
-  <si>
     <t>1 shield/s</t>
   </si>
   <si>
@@ -870,12 +861,6 @@
     <t>global multiplicative</t>
   </si>
   <si>
-    <t>reduce 10%</t>
-  </si>
-  <si>
-    <t>reduce 20%</t>
-  </si>
-  <si>
     <t>0(100)</t>
   </si>
   <si>
@@ -922,6 +907,18 @@
   </si>
   <si>
     <t>A bomb so agile that it is common knowledge to prefer to repair damages caused by it rather than destoying them.</t>
+  </si>
+  <si>
+    <t>heal 50/s</t>
+  </si>
+  <si>
+    <t>buff 50%</t>
+  </si>
+  <si>
+    <t>reduce 15%</t>
+  </si>
+  <si>
+    <t>reduce 30%</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1386,8 @@
   <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1638,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1851,7 +1848,7 @@
         <v>9</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -1959,7 +1956,7 @@
         <v>9</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -2388,7 +2385,7 @@
         <v>79</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2429,7 +2426,7 @@
         <v>81</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -2543,7 +2540,7 @@
         <v>81</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -3161,7 +3158,7 @@
         <v>90</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -3292,7 +3289,7 @@
         <v>209</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3324,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>94</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3347,7 +3344,7 @@
         <v>50</v>
       </c>
       <c r="E53" s="4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>29</v>
@@ -3365,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M53" s="28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>94</v>
@@ -3406,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>260</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>106</v>
@@ -3447,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>261</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>106</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
@@ -3488,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>107</v>
@@ -3529,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="N57" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>107</v>
@@ -3570,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>108</v>
@@ -3596,7 +3593,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G59" s="4">
         <v>1500</v>
@@ -3611,13 +3608,13 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>108</v>
@@ -3637,7 +3634,7 @@
         <v>0.2</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G60" s="4">
         <v>500</v>
@@ -3652,10 +3649,10 @@
         <v>0</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>109</v>
@@ -3675,7 +3672,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G61" s="4">
         <v>700</v>
@@ -3690,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>109</v>
@@ -3731,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>110</v>
@@ -3769,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>110</v>
@@ -3807,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>111</v>
@@ -3845,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>111</v>
@@ -3881,7 +3878,7 @@
         <v>0.05</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G67" s="22">
         <v>1000</v>
@@ -3899,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O67" s="23" t="s">
         <v>84</v>
@@ -3919,7 +3916,7 @@
         <v>0.05</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G68" s="22">
         <v>1500</v>
@@ -3937,13 +3934,13 @@
         <v>1</v>
       </c>
       <c r="N68" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O68" s="23" t="s">
         <v>223</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -3957,7 +3954,7 @@
         <v>0.02</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G69" s="22">
         <v>2000</v>
@@ -3975,13 +3972,13 @@
         <v>1</v>
       </c>
       <c r="N69" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O69" s="23" t="s">
         <v>224</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
@@ -3995,7 +3992,7 @@
         <v>0.02</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G70" s="22">
         <v>2500</v>
@@ -4013,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="N70" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O70" s="23" t="s">
         <v>225</v>
@@ -4057,7 +4054,7 @@
         <v>244</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O71" s="23" t="s">
         <v>13</v>
@@ -4077,7 +4074,7 @@
         <v>0.04</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G72" s="22">
         <v>3000</v>
@@ -4098,7 +4095,7 @@
         <v>244</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O72" s="23" t="s">
         <v>245</v>
@@ -4118,7 +4115,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G73" s="22">
         <v>4000</v>
@@ -4139,7 +4136,7 @@
         <v>244</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O73" s="23" t="s">
         <v>247</v>
@@ -4180,7 +4177,7 @@
         <v>244</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O74" s="23" t="s">
         <v>246</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -919,6 +919,12 @@
   </si>
   <si>
     <t>reduce 30%</t>
+  </si>
+  <si>
+    <t>reduce 20%</t>
+  </si>
+  <si>
+    <t>reduce 40%</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1393,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q65" sqref="Q65"/>
+      <selection pane="bottomLeft" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3731,7 +3737,7 @@
         <v>277</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>110</v>
@@ -3769,7 +3775,7 @@
         <v>277</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>110</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -762,15 +762,6 @@
     <t>pulls bullets</t>
   </si>
   <si>
-    <t>Taunt, shield replenish</t>
-  </si>
-  <si>
-    <t>Taunt, DOT,  adds armor to all, shield recovery, armor increase over time</t>
-  </si>
-  <si>
-    <t>Taunt,  shield replenish, increases all bombs armor</t>
-  </si>
-  <si>
     <t>sum of all child</t>
   </si>
   <si>
@@ -813,18 +804,9 @@
     <t>4 armor</t>
   </si>
   <si>
-    <t>heal 10/s</t>
-  </si>
-  <si>
     <t>self armor included</t>
   </si>
   <si>
-    <t>self heal 5/s</t>
-  </si>
-  <si>
-    <t>self heal 15/s</t>
-  </si>
-  <si>
     <t>stay above for long time before moving downwards</t>
   </si>
   <si>
@@ -925,6 +907,30 @@
   </si>
   <si>
     <t>reduce 40%</t>
+  </si>
+  <si>
+    <t>heal 20/s</t>
+  </si>
+  <si>
+    <t>Taunt,  adds armor to all, shield recovery, Timer</t>
+  </si>
+  <si>
+    <t>Taunt, Timer</t>
+  </si>
+  <si>
+    <t>Taunt, shield replenish, timer</t>
+  </si>
+  <si>
+    <t>Taunt,  shield replenish, increases all bombs armor, timer</t>
+  </si>
+  <si>
+    <t>SpawnSize</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
 </sst>
 </file>
@@ -1389,11 +1395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC76"/>
+  <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O42" sqref="O42"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1409,11 +1415,12 @@
     <col min="12" max="12" width="20.76171875" style="20" customWidth="1"/>
     <col min="13" max="14" width="19.52734375" style="20" customWidth="1"/>
     <col min="15" max="15" width="21.64453125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.703125" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="8.9375" style="6"/>
+    <col min="16" max="16" width="19.234375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.703125" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.9375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="26" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" s="26" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
@@ -1459,11 +1466,14 @@
       <c r="O1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1497,14 +1507,17 @@
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1535,11 +1548,14 @@
       <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1570,11 +1586,14 @@
       <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1605,11 +1624,14 @@
       <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1640,11 +1662,14 @@
       <c r="O6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P6" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1675,11 +1700,14 @@
       <c r="O7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1713,11 +1741,14 @@
       <c r="O8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
@@ -1748,11 +1779,14 @@
       <c r="O9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
@@ -1772,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <v>5</v>
@@ -1783,11 +1817,14 @@
       <c r="O10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
@@ -1807,7 +1844,7 @@
         <v>80</v>
       </c>
       <c r="H11" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <v>20</v>
@@ -1818,11 +1855,14 @@
       <c r="O11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1853,11 +1893,14 @@
       <c r="O12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1888,11 +1931,14 @@
       <c r="O13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1926,11 +1972,14 @@
       <c r="O14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
@@ -1961,11 +2010,14 @@
       <c r="O15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
@@ -1996,11 +2048,14 @@
       <c r="O16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
@@ -2031,11 +2086,14 @@
       <c r="O17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
@@ -2066,11 +2124,14 @@
       <c r="O18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2101,11 +2162,14 @@
       <c r="O19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2139,11 +2203,14 @@
       <c r="O20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B21" s="4" t="s">
         <v>73</v>
       </c>
@@ -2174,11 +2241,14 @@
       <c r="O21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B22" s="4" t="s">
         <v>74</v>
       </c>
@@ -2209,11 +2279,14 @@
       <c r="O22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
@@ -2244,11 +2317,14 @@
       <c r="O23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -2285,11 +2361,14 @@
       <c r="O24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>114</v>
       </c>
@@ -2320,11 +2399,14 @@
       <c r="O25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q25" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>115</v>
       </c>
@@ -2355,11 +2437,14 @@
       <c r="O26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B27" s="2" t="s">
         <v>116</v>
       </c>
@@ -2390,11 +2475,14 @@
       <c r="O27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>83</v>
       </c>
@@ -2431,11 +2519,14 @@
       <c r="O28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P28" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B29" s="4" t="s">
         <v>117</v>
       </c>
@@ -2469,11 +2560,14 @@
       <c r="O29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q29" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B30" s="4" t="s">
         <v>118</v>
       </c>
@@ -2507,11 +2601,14 @@
       <c r="O30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B31" s="4" t="s">
         <v>119</v>
       </c>
@@ -2545,11 +2642,14 @@
       <c r="O31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P31" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>128</v>
       </c>
@@ -2557,7 +2657,7 @@
         <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E32" s="2">
         <v>0.3</v>
@@ -2578,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>216</v>
@@ -2586,16 +2686,19 @@
       <c r="O32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q32" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E33" s="2">
         <v>0.25</v>
@@ -2616,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>217</v>
@@ -2624,16 +2727,19 @@
       <c r="O33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E34" s="2">
         <v>0.2</v>
@@ -2654,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>218</v>
@@ -2662,22 +2768,25 @@
       <c r="O34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q34" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B35" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E35" s="2">
         <v>0.15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G35" s="2">
         <v>160</v>
@@ -2692,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>219</v>
@@ -2700,11 +2809,14 @@
       <c r="O35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q35" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>134</v>
       </c>
@@ -2733,19 +2845,22 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q36" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B37" s="4" t="s">
         <v>135</v>
       </c>
@@ -2771,19 +2886,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P37" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q37" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B38" s="4" t="s">
         <v>136</v>
       </c>
@@ -2809,19 +2927,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="P38" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q38" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B39" s="4" t="s">
         <v>137</v>
       </c>
@@ -2832,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G39" s="4">
         <v>260</v>
@@ -2847,19 +2968,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P39" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q39" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
@@ -2867,13 +2991,13 @@
         <v>139</v>
       </c>
       <c r="D40" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G40" s="2">
         <v>100</v>
@@ -2888,30 +3012,33 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q40" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B41" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D41" s="2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G41" s="2">
         <v>150</v>
@@ -2926,16 +3053,19 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q41" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
         <v>141</v>
       </c>
@@ -2943,13 +3073,13 @@
         <v>220</v>
       </c>
       <c r="D42" s="2">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G42" s="2">
         <v>200</v>
@@ -2964,27 +3094,30 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G43" s="2">
         <v>250</v>
@@ -2999,16 +3132,19 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
@@ -3037,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M44" s="28">
         <v>0.02</v>
@@ -3046,11 +3182,14 @@
       <c r="O44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P44" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B45" s="4" t="s">
         <v>144</v>
       </c>
@@ -3076,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M45" s="28">
         <v>0.03</v>
@@ -3085,11 +3224,14 @@
       <c r="O45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="P45" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B46" s="4" t="s">
         <v>145</v>
       </c>
@@ -3115,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M46" s="28">
         <v>0.04</v>
@@ -3124,11 +3266,14 @@
       <c r="O46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="P46" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B47" s="4" t="s">
         <v>146</v>
       </c>
@@ -3154,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M47" s="28">
         <v>0.05</v>
@@ -3163,11 +3308,14 @@
       <c r="O47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P47" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>208</v>
       </c>
@@ -3198,11 +3346,14 @@
       <c r="O48" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
         <v>210</v>
       </c>
@@ -3230,11 +3381,14 @@
       <c r="O49" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B50" s="2" t="s">
         <v>211</v>
       </c>
@@ -3262,11 +3416,14 @@
       <c r="O50" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q50" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
         <v>212</v>
       </c>
@@ -3294,11 +3451,14 @@
       <c r="O51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P51" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>91</v>
       </c>
@@ -3327,22 +3487,25 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P52" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P52" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B53" s="4" t="s">
         <v>93</v>
       </c>
@@ -3368,22 +3531,25 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M53" s="28">
         <v>0.5</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P53" s="5" t="s">
+      <c r="P53" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q53" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B54" s="4" t="s">
         <v>95</v>
       </c>
@@ -3409,22 +3575,25 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M54" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="P54" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q54" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B55" s="4" t="s">
         <v>96</v>
       </c>
@@ -3450,22 +3619,25 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P55" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P55" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B56" s="4" t="s">
         <v>97</v>
       </c>
@@ -3490,23 +3662,23 @@
       <c r="J56" s="4">
         <v>0</v>
       </c>
-      <c r="L56" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="M56" s="4" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="P56" s="5" t="s">
+      <c r="P56" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q56" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B57" s="4" t="s">
         <v>98</v>
       </c>
@@ -3517,7 +3689,7 @@
         <v>0.1</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G57" s="4">
         <v>1500</v>
@@ -3531,28 +3703,28 @@
       <c r="J57" s="4">
         <v>0</v>
       </c>
-      <c r="L57" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="M57" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="P57" s="5" t="s">
+      <c r="P57" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q57" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B58" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D58" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
@@ -3573,33 +3745,36 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="P58" s="5" t="s">
+      <c r="P58" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q58" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B59" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D59" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E59" s="4">
         <v>0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G59" s="4">
         <v>1500</v>
@@ -3614,22 +3789,25 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="P59" s="5" t="s">
+      <c r="P59" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q59" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B60" s="4" t="s">
         <v>99</v>
       </c>
@@ -3640,7 +3818,7 @@
         <v>0.2</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G60" s="4">
         <v>500</v>
@@ -3655,19 +3833,22 @@
         <v>0</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P60" s="5" t="s">
+      <c r="P60" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q60" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B61" s="4" t="s">
         <v>100</v>
       </c>
@@ -3678,7 +3859,7 @@
         <v>0.1</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G61" s="4">
         <v>700</v>
@@ -3693,19 +3874,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P61" s="5" t="s">
+      <c r="P61" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q61" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
         <v>101</v>
       </c>
@@ -3734,19 +3918,22 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B63" s="2" t="s">
         <v>103</v>
       </c>
@@ -3772,19 +3959,22 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="P63" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q63" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
@@ -3810,19 +4000,22 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="P64" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q64" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
         <v>105</v>
       </c>
@@ -3848,19 +4041,22 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="P65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q65" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A66" s="24" t="s">
         <v>227</v>
       </c>
@@ -3868,9 +4064,9 @@
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
       <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-    </row>
-    <row r="67" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q66" s="25"/>
+    </row>
+    <row r="67" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>82</v>
       </c>
@@ -3878,13 +4074,13 @@
         <v>120</v>
       </c>
       <c r="D67" s="22">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E67" s="22">
         <v>0.05</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G67" s="22">
         <v>1000</v>
@@ -3902,27 +4098,30 @@
         <v>1</v>
       </c>
       <c r="N67" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O67" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="P67" s="23" t="s">
+      <c r="P67" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q67" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B68" s="22" t="s">
         <v>121</v>
       </c>
       <c r="D68" s="22">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E68" s="22">
         <v>0.05</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G68" s="22">
         <v>1500</v>
@@ -3940,30 +4139,33 @@
         <v>1</v>
       </c>
       <c r="N68" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O68" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="P68" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P68" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q68" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B69" s="22" t="s">
         <v>122</v>
       </c>
       <c r="D69" s="22">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E69" s="22">
         <v>0.02</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G69" s="22">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H69" s="22">
         <v>4</v>
@@ -3975,33 +4177,36 @@
         <v>0</v>
       </c>
       <c r="K69" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O69" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="P69" s="23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P69" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q69" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B70" s="22" t="s">
         <v>123</v>
       </c>
       <c r="D70" s="22">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="E70" s="22">
         <v>0.02</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G70" s="22">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="H70" s="22">
         <v>5</v>
@@ -4016,16 +4221,19 @@
         <v>2</v>
       </c>
       <c r="N70" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O70" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="P70" s="23" t="s">
+      <c r="P70" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q70" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>85</v>
       </c>
@@ -4033,7 +4241,7 @@
         <v>124</v>
       </c>
       <c r="D71" s="22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E71" s="22">
         <v>0.04</v>
@@ -4060,27 +4268,30 @@
         <v>244</v>
       </c>
       <c r="N71" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O71" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P71" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="P71" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q71" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B72" s="22" t="s">
         <v>125</v>
       </c>
       <c r="D72" s="22">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="E72" s="22">
         <v>0.04</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G72" s="22">
         <v>3000</v>
@@ -4101,30 +4312,33 @@
         <v>244</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O72" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="P72" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="P72" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q72" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B73" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D73" s="22">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E73" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G73" s="22">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="H73" s="22">
         <v>8</v>
@@ -4136,27 +4350,30 @@
         <v>1</v>
       </c>
       <c r="K73" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73" s="22" t="s">
         <v>244</v>
       </c>
       <c r="N73" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O73" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="P73" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="P73" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q73" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B74" s="22" t="s">
         <v>127</v>
       </c>
       <c r="D74" s="22">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="E74" s="22">
         <v>1.4999999999999999E-2</v>
@@ -4165,7 +4382,7 @@
         <v>62</v>
       </c>
       <c r="G74" s="22">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="H74" s="22">
         <v>5</v>
@@ -4183,28 +4400,31 @@
         <v>244</v>
       </c>
       <c r="N74" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O74" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="P74" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="P74" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q74" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
       <c r="N75" s="30"/>
       <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-    </row>
-    <row r="76" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Q75" s="23"/>
+    </row>
+    <row r="76" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
       <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1398,8 +1398,8 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4385,7 +4385,7 @@
         <v>7000</v>
       </c>
       <c r="H74" s="22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I74" s="22">
         <v>800</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1398,8 +1398,8 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4083,7 +4083,7 @@
         <v>272</v>
       </c>
       <c r="G67" s="22">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H67" s="22">
         <v>2</v>
@@ -4124,7 +4124,7 @@
         <v>273</v>
       </c>
       <c r="G68" s="22">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H68" s="22">
         <v>3</v>
@@ -4165,7 +4165,7 @@
         <v>274</v>
       </c>
       <c r="G69" s="22">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H69" s="22">
         <v>4</v>
@@ -4206,7 +4206,7 @@
         <v>275</v>
       </c>
       <c r="G70" s="22">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H70" s="22">
         <v>5</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Basic enemies" sheetId="1" r:id="rId1"/>
@@ -933,9 +933,6 @@
     <t>basic boss</t>
   </si>
   <si>
-    <t>A highly defensive type of bomb geared in protecting its fellow bombs. It shows other effects as well periodically.</t>
-  </si>
-  <si>
     <t>Ultimatebasic</t>
   </si>
   <si>
@@ -1000,6 +997,9 @@
   </si>
   <si>
     <t>mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A highly defensive type of bomb geared in protecting its fellow bombs. It shows other abilities as well periodically. </t>
   </si>
 </sst>
 </file>
@@ -1482,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4362,7 +4362,7 @@
         <v>300</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.5">
@@ -4521,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4553,7 +4553,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>301</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -4602,10 +4602,10 @@
     </row>
     <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -4613,10 +4613,10 @@
     </row>
     <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -4635,10 +4635,10 @@
     </row>
     <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -4657,10 +4657,10 @@
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -4668,10 +4668,10 @@
     </row>
     <row r="12" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="14" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="15" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -4712,10 +4712,10 @@
     </row>
     <row r="16" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -4723,10 +4723,10 @@
     </row>
     <row r="17" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1482,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2429,7 +2429,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>231</v>
       </c>
       <c r="G26" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H27" s="1">
         <v>2</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1483,8 +1483,8 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1484,7 +1484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4335,10 +4335,10 @@
         <v>67</v>
       </c>
       <c r="G71" s="8">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="H71" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="8">
         <v>200</v>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -951,9 +951,6 @@
     <t>[2-30]</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>mesocarrier</t>
   </si>
   <si>
@@ -996,10 +993,63 @@
     <t>hypercore</t>
   </si>
   <si>
-    <t>mix</t>
-  </si>
-  <si>
     <t xml:space="preserve">A highly defensive type of bomb geared in protecting its fellow bombs. It shows other abilities as well periodically. </t>
+  </si>
+  <si>
+    <t>[2-18]</t>
+  </si>
+  <si>
+    <t>Couplad</t>
+  </si>
+  <si>
+    <t>2 entities are coupled to each other. When 1 dies, it slowly regains hp. If it reaches full hp then it is fully functional again, the only way to kill it is to the kill the other entitiy while one is down. (deals DOT)</t>
+  </si>
+  <si>
+    <t>MaxCouplad</t>
+  </si>
+  <si>
+    <t>same as couplad but now everytime 1 of the entities dies it boost a certain aspect, 1 of the sides boost the speed and other boost damage (DOT increases with each kill as well)</t>
+  </si>
+  <si>
+    <t>Maxima</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>??? (secret stage boss)</t>
+  </si>
+  <si>
+    <t>2 lives, massive damage, mode change, 1st stage buff &amp; debuffs &amp;reflect dmg 2nd stage DOT &amp; summons (carriers/cores every 40 seconds or smthing) (doesn't move all the way down but deal damage upon each death and if a stage is not killed fast enough it does game ending damage every 4mins or smthing.</t>
+  </si>
+  <si>
+    <t>coupled, maxcouplad</t>
+  </si>
+  <si>
+    <t>Minima</t>
+  </si>
+  <si>
+    <t>small hitbox, buffs speed, moves towards randomm positions in the map, phases in and out of invisibility under 50% health &amp; speed boost.</t>
+  </si>
+  <si>
+    <t>Minima &amp; Gigantodon</t>
+  </si>
+  <si>
+    <t>Gigantodon</t>
+  </si>
+  <si>
+    <t>masssive hp, very wide (pierce to hit stuff behind it), under 20%health recovers hp. Increases your ammo rate but makes it 0 every minute.</t>
+  </si>
+  <si>
+    <t>3 lives, invulnerable during revives. Every stage it picks random abilities among the following, (teleporting movement, spawner, DOT, Buff, Debuff, Taunt &amp; pull, bullets turn invisible, enemies turn invisible periodically) with the numbers chosen as 2,4,6
+during reviving it stops production of bullets &amp; cooldowns
+during its second reviving it summons bunch of other stuff.</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>slowly reduces max hp? Possible? If not hit for a time it accrues damage and hits with a burst on next hit. Enemies that detonate on fortress don't deal damage but ernesto holds their damage until it is big and then releases at once.</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1533,8 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4362,7 +4412,7 @@
         <v>300</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.5">
@@ -4519,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4555,9 +4605,7 @@
       <c r="B2" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>301</v>
-      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
         <v>301</v>
@@ -4570,9 +4618,7 @@
       <c r="B3" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>301</v>
-      </c>
+      <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
         <v>301</v>
@@ -4594,7 +4640,7 @@
         <v>303</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -4605,7 +4651,7 @@
         <v>305</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -4613,18 +4659,20 @@
     </row>
     <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="17" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="26"/>
+        <v>324</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>325</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>310</v>
@@ -4635,43 +4683,47 @@
     </row>
     <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C11" s="28"/>
+        <v>326</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>327</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -4679,10 +4731,10 @@
     </row>
     <row r="13" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -4690,21 +4742,23 @@
     </row>
     <row r="14" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="28"/>
+        <v>336</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>337</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -4712,39 +4766,60 @@
     </row>
     <row r="16" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+    <row r="17" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>338</v>
+      </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic enemies" sheetId="1" r:id="rId1"/>
@@ -1029,9 +1029,6 @@
     <t>Minima</t>
   </si>
   <si>
-    <t>small hitbox, buffs speed, moves towards randomm positions in the map, phases in and out of invisibility under 50% health &amp; speed boost.</t>
-  </si>
-  <si>
     <t>Minima &amp; Gigantodon</t>
   </si>
   <si>
@@ -1049,7 +1046,10 @@
     <t>Ernesto</t>
   </si>
   <si>
-    <t>slowly reduces max hp? Possible? If not hit for a time it accrues damage and hits with a burst on next hit. Enemies that detonate on fortress don't deal damage but ernesto holds their damage until it is big and then releases at once.</t>
+    <t>slowly reduces max hp? Possible? If not hit for a time it accrues damage and hits with a burst on next hit. Enemies that detonate on fortress don't deal damage but ernesto holds their damage until it is big and then releases at once - these enemies are chosen with certain intervals</t>
+  </si>
+  <si>
+    <t>small hitbox, buffs speed, moves towards randomm positions in the map, phases in and out of invisibility under 50% health &amp; further speed boost.</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
@@ -4571,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4700,7 +4700,7 @@
         <v>333</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4745,10 +4745,10 @@
         <v>315</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>336</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>337</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -4769,7 +4769,7 @@
         <v>317</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -4793,10 +4793,10 @@
         <v>319</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>339</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>340</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -4809,7 +4809,7 @@
         <v>330</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4572,7 +4572,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -1046,10 +1046,10 @@
     <t>Ernesto</t>
   </si>
   <si>
-    <t>slowly reduces max hp? Possible? If not hit for a time it accrues damage and hits with a burst on next hit. Enemies that detonate on fortress don't deal damage but ernesto holds their damage until it is big and then releases at once - these enemies are chosen with certain intervals</t>
-  </si>
-  <si>
     <t>small hitbox, buffs speed, moves towards randomm positions in the map, phases in and out of invisibility under 50% health &amp; further speed boost.</t>
+  </si>
+  <si>
+    <t>If not hit for a time it accrues damage and hits with a burst on next hit. Enemies that detonate on fortress don't deal damage but ernesto holds their damage until it is big and then releases at once - these enemies are chosen with certain intervals</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -4572,7 +4572,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4700,7 +4700,7 @@
         <v>333</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4796,7 +4796,7 @@
         <v>338</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Basic enemies" sheetId="1" r:id="rId1"/>
@@ -1532,9 +1532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4571,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic enemies" sheetId="1" r:id="rId1"/>
@@ -1008,9 +1008,6 @@
     <t>MaxCouplad</t>
   </si>
   <si>
-    <t>same as couplad but now everytime 1 of the entities dies it boost a certain aspect, 1 of the sides boost the speed and other boost damage (DOT increases with each kill as well)</t>
-  </si>
-  <si>
     <t>Maxima</t>
   </si>
   <si>
@@ -1035,14 +1032,6 @@
     <t>Gigantodon</t>
   </si>
   <si>
-    <t>masssive hp, very wide (pierce to hit stuff behind it), under 20%health recovers hp. Increases your ammo rate but makes it 0 every minute.</t>
-  </si>
-  <si>
-    <t>3 lives, invulnerable during revives. Every stage it picks random abilities among the following, (teleporting movement, spawner, DOT, Buff, Debuff, Taunt &amp; pull, bullets turn invisible, enemies turn invisible periodically) with the numbers chosen as 2,4,6
-during reviving it stops production of bullets &amp; cooldowns
-during its second reviving it summons bunch of other stuff.</t>
-  </si>
-  <si>
     <t>Ernesto</t>
   </si>
   <si>
@@ -1050,6 +1039,15 @@
   </si>
   <si>
     <t>If not hit for a time it accrues damage and hits with a burst on next hit. Enemies that detonate on fortress don't deal damage but ernesto holds their damage until it is big and then releases at once - these enemies are chosen with certain intervals</t>
+  </si>
+  <si>
+    <t>same as couplad but now everytime 1 of the entities dies it boost each of their effects, 1 of the sides boost the fortress hit damage and other boost DOT.</t>
+  </si>
+  <si>
+    <t>masssive hp, very wide (blocks pierce), under 20%health recovers hp. Increases your ammo rate but makes it 0 every minute.</t>
+  </si>
+  <si>
+    <t>3 lives. Every stage it picks random abilities (abilities are also changed periodically) among the following (9 abilities), (teleporting movement, spawner, DOT, Buff, Debuff, Taunt &amp; pull, enemies turn invisible, vampire heal, block pierce) with the number of abilities at a given time chosen as 2,4,6 depending on the respective number of deaths.</t>
   </si>
 </sst>
 </file>
@@ -1532,9 +1530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4571,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4697,10 +4695,10 @@
         <v>307</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4713,7 +4711,7 @@
         <v>326</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -4745,10 +4743,10 @@
         <v>315</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -4758,7 +4756,7 @@
         <v>316</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -4769,7 +4767,7 @@
         <v>317</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -4780,10 +4778,10 @@
         <v>318</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -4793,23 +4791,23 @@
         <v>319</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>330</v>
-      </c>
       <c r="C19" s="33" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nived\OneDrive\Desktop\Unity Projects Completedish\Project\Shooter thingy\BombShootingGameAndroid\BombShootDown\Assets\Templates\Enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nived\OneDrive\Desktop\Unity Projects Completedish\Project\Shooter thingy\BombShootDown - PreURP\BombShootingGameAndroid\BombShootDown\Assets\Templates\Enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Basic enemies" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="358">
   <si>
     <t>Name</t>
   </si>
@@ -1048,6 +1048,57 @@
   </si>
   <si>
     <t>3 lives. Every stage it picks random abilities (abilities are also changed periodically) among the following (9 abilities), (teleporting movement, spawner, DOT, Buff, Debuff, Taunt &amp; pull, enemies turn invisible, vampire heal, block pierce) with the number of abilities at a given time chosen as 2,4,6 depending on the respective number of deaths.</t>
+  </si>
+  <si>
+    <t>MAINBOSSES</t>
+  </si>
+  <si>
+    <t>Gigantadon</t>
+  </si>
+  <si>
+    <t>HiddenBoss</t>
+  </si>
+  <si>
+    <t>A pair of bombs that somehow revivew if not destroyed simultaneously.</t>
+  </si>
+  <si>
+    <t>A dangerous pair of bombs that revive and get strengthened if not destroyed simultaneously.</t>
+  </si>
+  <si>
+    <t>A bomb of truth.</t>
+  </si>
+  <si>
+    <t>The largest bomb to be recorded.</t>
+  </si>
+  <si>
+    <t>A bomb capable of massive destruction.</t>
+  </si>
+  <si>
+    <t>A trickster of a bomb. Difficult to hit.</t>
+  </si>
+  <si>
+    <t>distance to move:</t>
+  </si>
+  <si>
+    <t>0(50)</t>
+  </si>
+  <si>
+    <t>0(60)</t>
+  </si>
+  <si>
+    <t>0(500)</t>
+  </si>
+  <si>
+    <t>0(1000)</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>never comes down.</t>
+  </si>
+  <si>
+    <t>never comes down</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,6 +1299,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1528,11 +1584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD76"/>
+  <dimension ref="A1:AD94"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4559,6 +4615,300 @@
       <c r="O76" s="9"/>
       <c r="Q76" s="9"/>
     </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A77" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2</v>
+      </c>
+      <c r="I77" s="5">
+        <v>200</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
+        <v>2</v>
+      </c>
+      <c r="M77" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="N77" s="38"/>
+      <c r="O77" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B78" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1500</v>
+      </c>
+      <c r="H78" s="5">
+        <v>4</v>
+      </c>
+      <c r="I78" s="5">
+        <v>300</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5">
+        <v>2</v>
+      </c>
+      <c r="M78" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="N78" s="38"/>
+      <c r="O78" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B79" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="5">
+        <v>120</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H79" s="5">
+        <v>2</v>
+      </c>
+      <c r="I79" s="5">
+        <v>100</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="K79" s="5">
+        <v>2</v>
+      </c>
+      <c r="M79" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="N79" s="38"/>
+      <c r="O79" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B80" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="5">
+        <v>300</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G80" s="5">
+        <v>9000</v>
+      </c>
+      <c r="H80" s="5">
+        <v>6</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
+        <v>2</v>
+      </c>
+      <c r="M80" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="N80" s="38"/>
+      <c r="O80" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B81" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D81" s="5">
+        <v>300</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G81" s="5">
+        <v>25000</v>
+      </c>
+      <c r="H81" s="5">
+        <v>8</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
+        <v>2</v>
+      </c>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B82" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="5">
+        <v>300</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="5">
+        <v>900</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="5">
+        <v>2</v>
+      </c>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B83" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" s="5">
+        <v>300</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="5">
+        <v>8000</v>
+      </c>
+      <c r="H83" s="5">
+        <v>5</v>
+      </c>
+      <c r="I83" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="K83" s="5">
+        <v>2</v>
+      </c>
+      <c r="M83" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="N83" s="38"/>
+      <c r="O83" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="M84" s="39"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="40"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="N85" s="38"/>
+      <c r="O85" s="40"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="N86" s="38"/>
+      <c r="O86" s="40"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="M87" s="39"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="40"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="M88" s="39"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="40"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="N89" s="38"/>
+      <c r="O89" s="40"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="M90" s="39"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="40"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="M91" s="39"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="40"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="N92" s="38"/>
+      <c r="O92" s="40"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="N93" s="38"/>
+      <c r="O93" s="40"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="N94" s="38"/>
+      <c r="O94" s="40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4569,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
+++ b/BombShootDown/Assets/Templates/Enemies/EnemiesDataList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="361">
   <si>
     <t>Name</t>
   </si>
@@ -1099,6 +1099,15 @@
   </si>
   <si>
     <t>never comes down</t>
+  </si>
+  <si>
+    <t>130,80</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>80,50</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,6 +1197,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1216,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,7 +1274,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1304,12 +1318,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9999FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1587,8 +1617,8 @@
   <dimension ref="A1:AD94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4601,313 +4631,347 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="9"/>
-      <c r="Q75" s="9"/>
-    </row>
-    <row r="76" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="9"/>
-      <c r="Q76" s="9"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A77" s="5" t="s">
+    <row r="75" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="39"/>
+      <c r="Q75" s="39"/>
+    </row>
+    <row r="76" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="39"/>
+      <c r="Q76" s="39"/>
+    </row>
+    <row r="77" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="D77" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="F77" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="41">
         <v>1000</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="41">
         <v>2</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="41">
         <v>200</v>
       </c>
-      <c r="J77" s="5">
-        <v>0</v>
-      </c>
-      <c r="K77" s="5">
+      <c r="J77" s="41">
+        <v>0</v>
+      </c>
+      <c r="K77" s="41">
         <v>2</v>
       </c>
-      <c r="M77" s="38" t="s">
+      <c r="L77" s="42"/>
+      <c r="M77" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="N77" s="38"/>
-      <c r="O77" s="39" t="s">
+      <c r="N77" s="42"/>
+      <c r="O77" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="Q77" s="6" t="s">
+      <c r="Q77" s="44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B78" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="D78" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="F78" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="41">
         <v>1500</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="41">
         <v>4</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="41">
         <v>300</v>
       </c>
-      <c r="J78" s="5">
-        <v>0</v>
-      </c>
-      <c r="K78" s="5">
+      <c r="J78" s="41">
+        <v>0</v>
+      </c>
+      <c r="K78" s="41">
         <v>2</v>
       </c>
-      <c r="M78" s="38" t="s">
+      <c r="L78" s="42"/>
+      <c r="M78" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="N78" s="38"/>
-      <c r="O78" s="39" t="s">
+      <c r="N78" s="42"/>
+      <c r="O78" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="Q78" s="6" t="s">
+      <c r="Q78" s="44" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B79" s="5" t="s">
+    <row r="79" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B79" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="41">
         <v>120</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="E79" s="41">
+        <v>4</v>
+      </c>
+      <c r="F79" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="41">
         <v>3000</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="41">
         <v>2</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="41">
         <v>100</v>
       </c>
-      <c r="J79" s="5">
-        <v>0</v>
-      </c>
-      <c r="K79" s="5">
+      <c r="J79" s="41">
+        <v>0</v>
+      </c>
+      <c r="K79" s="41">
         <v>2</v>
       </c>
-      <c r="M79" s="38" t="s">
+      <c r="L79" s="42"/>
+      <c r="M79" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="N79" s="38"/>
-      <c r="O79" s="39" t="s">
+      <c r="N79" s="42"/>
+      <c r="O79" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="Q79" s="6" t="s">
+      <c r="Q79" s="44" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B80" s="5" t="s">
+    <row r="80" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B80" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="41">
         <v>300</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="E80" s="41">
+        <v>2</v>
+      </c>
+      <c r="F80" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="41">
         <v>9000</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="41">
         <v>6</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="41">
         <v>1000</v>
       </c>
-      <c r="J80" s="5">
-        <v>0</v>
-      </c>
-      <c r="K80" s="5">
+      <c r="J80" s="41">
+        <v>0</v>
+      </c>
+      <c r="K80" s="41">
         <v>2</v>
       </c>
-      <c r="M80" s="38" t="s">
+      <c r="L80" s="42"/>
+      <c r="M80" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="N80" s="38"/>
-      <c r="O80" s="39" t="s">
+      <c r="N80" s="42"/>
+      <c r="O80" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="Q80" s="6" t="s">
+      <c r="Q80" s="44" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B81" s="5" t="s">
+    <row r="81" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B81" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="41">
         <v>300</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="E81" s="41">
+        <v>0.05</v>
+      </c>
+      <c r="F81" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="41">
         <v>25000</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="41">
         <v>8</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="41">
         <v>1000000</v>
       </c>
-      <c r="J81" s="5">
-        <v>0</v>
-      </c>
-      <c r="K81" s="5">
+      <c r="J81" s="41">
+        <v>0</v>
+      </c>
+      <c r="K81" s="41">
         <v>2</v>
       </c>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="39" t="s">
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="Q81" s="6" t="s">
+      <c r="Q81" s="44" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B82" s="5" t="s">
+    <row r="82" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B82" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="41">
         <v>300</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="E82" s="41">
+        <v>0</v>
+      </c>
+      <c r="F82" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="41">
         <v>20000</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="41">
         <v>1</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="41">
         <v>900</v>
       </c>
-      <c r="J82" s="5">
-        <v>0</v>
-      </c>
-      <c r="K82" s="5">
+      <c r="J82" s="41">
+        <v>0</v>
+      </c>
+      <c r="K82" s="41">
         <v>2</v>
       </c>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="39" t="s">
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="Q82" s="6" t="s">
+      <c r="Q82" s="44" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B83" s="5" t="s">
+    <row r="83" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="41">
         <v>300</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="E83" s="41">
+        <v>3</v>
+      </c>
+      <c r="F83" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="41">
         <v>8000</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="41">
         <v>5</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="41">
         <v>10000</v>
       </c>
-      <c r="J83" s="5" t="s">
+      <c r="J83" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="41">
         <v>2</v>
       </c>
-      <c r="M83" s="39" t="s">
+      <c r="L83" s="42"/>
+      <c r="M83" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="N83" s="38"/>
-      <c r="O83" s="39" t="s">
+      <c r="N83" s="42"/>
+      <c r="O83" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="Q83" s="6" t="s">
+      <c r="Q83" s="44" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="M84" s="39"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="40"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="39"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="N85" s="38"/>
-      <c r="O85" s="40"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="39"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="N86" s="38"/>
-      <c r="O86" s="40"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="39"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="M87" s="39"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="40"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="39"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="M88" s="39"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="40"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="39"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="N89" s="38"/>
-      <c r="O89" s="40"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="39"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="M90" s="39"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="40"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="39"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="M91" s="39"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="40"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="39"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="N92" s="38"/>
-      <c r="O92" s="40"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="39"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="N93" s="38"/>
-      <c r="O93" s="40"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="39"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="N94" s="38"/>
-      <c r="O94" s="40"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4925,249 +4989,249 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.9375" style="22"/>
-    <col min="2" max="2" width="21.64453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.8203125" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="8.9375" style="31"/>
+    <col min="1" max="1" width="8.9375" style="21"/>
+    <col min="2" max="2" width="21.64453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.8203125" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="8.9375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="17" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="17" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="17" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="17" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="17" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="21" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="21" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="21" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="21" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="21" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="21" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="21" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="35" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="32" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
